--- a/input/TableSaputo.xlsx
+++ b/input/TableSaputo.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10510"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/domfp13/Desktop/DataAnalysis/Saputo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lf188653\Desktop\Projects\work\DataEngineering\DataEngineering-Saputo\input\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40AC85C0-F7B4-884E-9A91-8649BE64AEBA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="152">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="139">
   <si>
     <t>work_order_id</t>
   </si>
@@ -39,36 +38,21 @@
     <t>requested_by_organization</t>
   </si>
   <si>
-    <t>Customer Division</t>
-  </si>
-  <si>
     <t>requested_by_full_name</t>
   </si>
   <si>
-    <t>Region</t>
-  </si>
-  <si>
     <t>requested_by_email</t>
   </si>
   <si>
-    <t>Site Group</t>
-  </si>
-  <si>
     <t>customer_organization</t>
   </si>
   <si>
-    <t>Site</t>
-  </si>
-  <si>
     <t>customer_division</t>
   </si>
   <si>
     <t>customer_full_name</t>
   </si>
   <si>
-    <t>Summary</t>
-  </si>
-  <si>
     <t>customer_internet_e-mail</t>
   </si>
   <si>
@@ -87,15 +71,9 @@
     <t>detailed_description</t>
   </si>
   <si>
-    <t>Priority</t>
-  </si>
-  <si>
     <t>business_service</t>
   </si>
   <si>
-    <t>Business Service</t>
-  </si>
-  <si>
     <t>priority</t>
   </si>
   <si>
@@ -108,27 +86,15 @@
     <t>operational_categorization_tier_3</t>
   </si>
   <si>
-    <t>Product Categorization Tier 1</t>
-  </si>
-  <si>
     <t>product_categorization_tier_1</t>
   </si>
   <si>
-    <t>Product Categorization Tier 2</t>
-  </si>
-  <si>
     <t>product_categorization_tier_2</t>
   </si>
   <si>
-    <t>Product Categorization Tier 3</t>
-  </si>
-  <si>
     <t>product_cat_tier_3_(2)</t>
   </si>
   <si>
-    <t>Product Name</t>
-  </si>
-  <si>
     <t>product_name_(2)</t>
   </si>
   <si>
@@ -141,30 +107,18 @@
     <t>assignee_group</t>
   </si>
   <si>
-    <t>Status</t>
-  </si>
-  <si>
     <t>request_assignee</t>
   </si>
   <si>
-    <t>Status Reason</t>
-  </si>
-  <si>
     <t>vendor_group</t>
   </si>
   <si>
     <t>vendor_ticket_number</t>
   </si>
   <si>
-    <t>Vendor Group</t>
-  </si>
-  <si>
     <t>status</t>
   </si>
   <si>
-    <t>Vendor Ticket Number</t>
-  </si>
-  <si>
     <t>status_reason</t>
   </si>
   <si>
@@ -186,30 +140,18 @@
     <t>templatename</t>
   </si>
   <si>
-    <t>Modified</t>
-  </si>
-  <si>
     <t>TICKETID</t>
   </si>
   <si>
-    <t>Incident ID</t>
-  </si>
-  <si>
     <t>SUBMITTER</t>
   </si>
   <si>
-    <t>Submitter</t>
-  </si>
-  <si>
     <t>SRID</t>
   </si>
   <si>
     <t>ORGANIZATION</t>
   </si>
   <si>
-    <t>Organization</t>
-  </si>
-  <si>
     <t>CUSTOMER_DIVISION</t>
   </si>
   <si>
@@ -225,42 +167,24 @@
     <t>CUSTOMER_NAME</t>
   </si>
   <si>
-    <t>Customer Name</t>
-  </si>
-  <si>
     <t>SUMMARY</t>
   </si>
   <si>
     <t>DETAILED_DESCRIPTION</t>
   </si>
   <si>
-    <t>Detailed Decription</t>
-  </si>
-  <si>
     <t>REPORTED_SOURCE</t>
   </si>
   <si>
-    <t>Reported Source</t>
-  </si>
-  <si>
     <t>SERVICE_TYPE</t>
   </si>
   <si>
-    <t>Service Type</t>
-  </si>
-  <si>
     <t>IMPACT</t>
   </si>
   <si>
-    <t>Impact</t>
-  </si>
-  <si>
     <t>URGENCY</t>
   </si>
   <si>
-    <t>Urgency</t>
-  </si>
-  <si>
     <t>PRIORITY</t>
   </si>
   <si>
@@ -270,21 +194,12 @@
     <t>CATEGORIZATION_TIER_1</t>
   </si>
   <si>
-    <t>Categorization Tier 1</t>
-  </si>
-  <si>
     <t>CATEGORIZATION_TIER_2</t>
   </si>
   <si>
-    <t>Categorization Tier 2</t>
-  </si>
-  <si>
     <t>CATEGORIZATION_TIER_3</t>
   </si>
   <si>
-    <t>Categorization Tier 3</t>
-  </si>
-  <si>
     <t>PRODUCT_CATEGORIZATION_TIER_1</t>
   </si>
   <si>
@@ -300,21 +215,12 @@
     <t>SUPPORT_ORGANIZATION</t>
   </si>
   <si>
-    <t>Support Organization</t>
-  </si>
-  <si>
     <t>ASSIGNED_GROUP</t>
   </si>
   <si>
-    <t>Assigned Group</t>
-  </si>
-  <si>
     <t>ASSIGNEE</t>
   </si>
   <si>
-    <t>Assignee</t>
-  </si>
-  <si>
     <t>STATUS</t>
   </si>
   <si>
@@ -324,9 +230,6 @@
     <t>SLM_STATUS</t>
   </si>
   <si>
-    <t>SLM Status</t>
-  </si>
-  <si>
     <t>VENDOR_GROUP</t>
   </si>
   <si>
@@ -336,57 +239,30 @@
     <t>RESOLUTION</t>
   </si>
   <si>
-    <t>Resolution</t>
-  </si>
-  <si>
     <t>RESOLUTION_METHOD</t>
   </si>
   <si>
-    <t>Resolution Method</t>
-  </si>
-  <si>
     <t>RESOLUTION_CATEGORY</t>
   </si>
   <si>
-    <t>Resolution Category</t>
-  </si>
-  <si>
     <t>RESOLUTION_CATEGORY_TIER_2</t>
   </si>
   <si>
-    <t>Resolution Category Tier 2</t>
-  </si>
-  <si>
     <t>RESOLUTION_CATEGORY_TIER_3</t>
   </si>
   <si>
-    <t>Resolution Category Tier 3</t>
-  </si>
-  <si>
     <t>CLOSURE_PRODUCT_CATEGORY_TIER1</t>
   </si>
   <si>
-    <t>Closure Product Category Tier1</t>
-  </si>
-  <si>
     <t>CLOSURE_PRODUCT_CATEGORY_TIER2</t>
   </si>
   <si>
-    <t>Closure Product Category Tier2</t>
-  </si>
-  <si>
     <t>CLOSURE_PRODUCT_CATEGORY_TIER3</t>
   </si>
   <si>
-    <t>Closure Product Category Tier3</t>
-  </si>
-  <si>
     <t>CLOSURE_PRODUCT_NAME</t>
   </si>
   <si>
-    <t>Closure Product Name</t>
-  </si>
-  <si>
     <t>SUBMIT_DATE</t>
   </si>
   <si>
@@ -399,48 +275,27 @@
     <t>RESPONDED_DATE</t>
   </si>
   <si>
-    <t>Responded</t>
-  </si>
-  <si>
     <t>ESTIMATED_RESOLUTION_DATE</t>
   </si>
   <si>
-    <t>Estimated</t>
-  </si>
-  <si>
     <t>LAST_RESOLVED_DATE</t>
   </si>
   <si>
-    <t>Resolved</t>
-  </si>
-  <si>
     <t>CLOSED_DATE</t>
   </si>
   <si>
-    <t>Closed</t>
-  </si>
-  <si>
     <t>LAST_MODIFIED_DATE</t>
   </si>
   <si>
     <t>INDIVIDUAL_TRANSFERS</t>
   </si>
   <si>
-    <t>Individual Transfers</t>
-  </si>
-  <si>
     <t>GROUP_TRANSFERS</t>
   </si>
   <si>
-    <t>Group Transfers</t>
-  </si>
-  <si>
     <t>TEMPLATE_NAME</t>
   </si>
   <si>
-    <t>Template Name</t>
-  </si>
-  <si>
     <t>REQUESTED_BY_ORGANIZATION</t>
   </si>
   <si>
@@ -481,12 +336,117 @@
   </si>
   <si>
     <t>last_modified_date</t>
+  </si>
+  <si>
+    <t>incident_number</t>
+  </si>
+  <si>
+    <t>organization</t>
+  </si>
+  <si>
+    <t>customer_name</t>
+  </si>
+  <si>
+    <t>description</t>
+  </si>
+  <si>
+    <t>detailed_decription</t>
+  </si>
+  <si>
+    <t>reported_source</t>
+  </si>
+  <si>
+    <t>service_type</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>urgency</t>
+  </si>
+  <si>
+    <t>serviceci</t>
+  </si>
+  <si>
+    <t>categorization_tier_1</t>
+  </si>
+  <si>
+    <t>categorization_tier_2</t>
+  </si>
+  <si>
+    <t>categorization_tier_3</t>
+  </si>
+  <si>
+    <t>product_categorization_tier_3</t>
+  </si>
+  <si>
+    <t>product_name</t>
+  </si>
+  <si>
+    <t>assigned_support_organization</t>
+  </si>
+  <si>
+    <t>assigned_group</t>
+  </si>
+  <si>
+    <t>assignee</t>
+  </si>
+  <si>
+    <t>slm_status</t>
+  </si>
+  <si>
+    <t>resolution</t>
+  </si>
+  <si>
+    <t>resolution_method</t>
+  </si>
+  <si>
+    <t>resolution_category</t>
+  </si>
+  <si>
+    <t>resolution_category_tier_2</t>
+  </si>
+  <si>
+    <t>resolution_category_tier_3</t>
+  </si>
+  <si>
+    <t>closure_product_category_tier1</t>
+  </si>
+  <si>
+    <t>closure_product_category_tier2</t>
+  </si>
+  <si>
+    <t>closure_product_category_tier3</t>
+  </si>
+  <si>
+    <t>closure_product_name</t>
+  </si>
+  <si>
+    <t>responded_date</t>
+  </si>
+  <si>
+    <t>estimated_resolution_date</t>
+  </si>
+  <si>
+    <t>last_resolved_date</t>
+  </si>
+  <si>
+    <t>closed_date</t>
+  </si>
+  <si>
+    <t>individual_transfers</t>
+  </si>
+  <si>
+    <t>group_transfers</t>
+  </si>
+  <si>
+    <t>template_name</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -539,7 +499,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -562,11 +522,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thick">
+        <color rgb="FFCCCCCC"/>
+      </left>
+      <right style="thick">
+        <color rgb="FFCCCCCC"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFCCCCCC"/>
+      </top>
+      <bottom style="thick">
+        <color rgb="FFCCCCCC"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -581,6 +556,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -862,672 +840,690 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="C52" sqref="C52"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B48" sqref="B48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="36.1640625" customWidth="1"/>
-    <col min="2" max="2" width="30.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="33.5" customWidth="1"/>
-    <col min="4" max="4" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="36.140625" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="33.42578125" customWidth="1"/>
+    <col min="4" max="4" width="18.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>147</v>
+        <v>99</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>148</v>
+        <v>100</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>55</v>
+        <v>38</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>104</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>39</v>
+      </c>
+      <c r="B3" s="6" t="s">
+        <v>2</v>
       </c>
       <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>58</v>
+        <v>40</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>105</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B9" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>107</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="B12" s="6" t="s">
+        <v>108</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>109</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>112</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>113</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>114</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>115</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B22" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B23" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="B24" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="2" t="s">
+      <c r="B25" s="6" t="s">
+        <v>118</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B7" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="2" t="s">
+      <c r="B26" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="2" t="s">
+      <c r="B27" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="B9" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="2" t="s">
+      <c r="B28" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="B29" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="C10" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="2" t="s">
+      <c r="B30" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
+      <c r="B31" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B12" s="2" t="s">
+      <c r="B32" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C12" s="3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="2" t="s">
+      <c r="B33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B13" s="2" t="s">
+      <c r="B34" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C13" s="4" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="2" t="s">
+      <c r="B35" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B14" s="2" t="s">
+      <c r="B36" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C14" s="4" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="B37" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B15" s="2" t="s">
+      <c r="B38" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C15" s="4" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="2" t="s">
+      <c r="B39" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="B16" s="2" t="s">
+      <c r="B40" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C16" s="4" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="2" t="s">
+      <c r="B41" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B17" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="2" t="s">
+      <c r="B42" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="2" t="s">
+      <c r="B43" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="B19" s="2" t="s">
+      <c r="B44" s="6" t="s">
         <v>81</v>
       </c>
-      <c r="C19" s="3" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
+      <c r="C44" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="B20" s="2" t="s">
+      <c r="B45" s="6" t="s">
+        <v>132</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="C20" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
+      <c r="B46" s="6" t="s">
+        <v>133</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
         <v>84</v>
       </c>
-      <c r="B21" s="2" t="s">
+      <c r="B47" s="6" t="s">
+        <v>134</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C21" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
+      <c r="B48" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
+      <c r="B49" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="C23" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
+      <c r="B50" s="6" t="s">
+        <v>136</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
+      <c r="B51" s="6" t="s">
+        <v>137</v>
+      </c>
+      <c r="C51" s="4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C25" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
+      <c r="B52" s="6" t="s">
+        <v>138</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="B26" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C26" s="3" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C27" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C28" s="3" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="C29" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="C30" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="B31" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C31" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B32" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="C32" s="3" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C33" s="3" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A34" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B34" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="C34" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A35" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B35" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="C35" s="4" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="B36" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C36" s="4" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="C37" s="4" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>111</v>
-      </c>
-      <c r="C38" s="4" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="B39" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="C39" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B40" s="2" t="s">
-        <v>115</v>
-      </c>
-      <c r="C40" s="4" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="B41" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="C41" s="4" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A42" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="B42" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" s="4" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A43" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="B43" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A44" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="C44" s="4" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A45" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B45" s="2" t="s">
-        <v>124</v>
-      </c>
-      <c r="C45" s="4" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A46" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C46" s="4" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A47" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="B47" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="C47" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A48" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="B48" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="C48" s="5" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="49" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A49" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="B49" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C49" s="5" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="50" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="C50" s="4" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="51" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A51" s="2" t="s">
-        <v>134</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>135</v>
-      </c>
-      <c r="C51" s="4" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="52" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A52" s="2" t="s">
-        <v>136</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>137</v>
-      </c>
-      <c r="C52" s="3" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="53" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A53" s="2" t="s">
-        <v>138</v>
-      </c>
-      <c r="B53" s="2"/>
+      <c r="B53" s="4" t="s">
+        <v>90</v>
+      </c>
       <c r="C53" s="3" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
-        <v>139</v>
-      </c>
-      <c r="B54" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="B54" s="4" t="s">
+        <v>91</v>
+      </c>
       <c r="C54" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B55" s="4" t="s">
+        <v>92</v>
+      </c>
+      <c r="C55" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A55" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="B55" s="2"/>
-      <c r="C55" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="56" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="B56" s="2"/>
+        <v>93</v>
+      </c>
+      <c r="B56" s="4" t="s">
+        <v>93</v>
+      </c>
       <c r="C56" s="3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="57" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
-        <v>142</v>
-      </c>
-      <c r="B57" s="2"/>
+        <v>94</v>
+      </c>
+      <c r="B57" s="4" t="s">
+        <v>94</v>
+      </c>
       <c r="C57" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="B58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="B60" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="C60" s="3" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A58" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B58" s="2"/>
-      <c r="C58" s="3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A59" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="B59" s="2"/>
-      <c r="C59" s="3" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A60" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="B60" s="2"/>
-      <c r="C60" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3" ht="17" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:3" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="B61" s="2"/>
+        <v>98</v>
+      </c>
+      <c r="B61" s="4" t="s">
+        <v>98</v>
+      </c>
       <c r="C61" s="3" t="s">
-        <v>51</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>
